--- a/horarios_optimizados-548-push_gap_0.80.xlsx
+++ b/horarios_optimizados-548-push_gap_0.80.xlsx
@@ -608,55 +608,39 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr"/>
-      <c r="J5" s="4" t="inlineStr"/>
-      <c r="K5" s="4" t="inlineStr"/>
-      <c r="L5" s="4" t="inlineStr"/>
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="G5" s="4" t="inlineStr"/>
+      <c r="H5" s="4" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M5" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N5" s="4" t="inlineStr"/>
       <c r="O5" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -682,10 +666,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr"/>
-      <c r="U5" s="4" t="inlineStr"/>
-      <c r="V5" s="4" t="inlineStr"/>
-      <c r="W5" s="4" t="inlineStr"/>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
@@ -694,80 +694,24 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
       <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="4" t="inlineStr"/>
       <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M6" s="4" t="inlineStr"/>
+      <c r="N6" s="4" t="inlineStr"/>
+      <c r="O6" s="4" t="inlineStr"/>
+      <c r="P6" s="4" t="inlineStr"/>
+      <c r="Q6" s="4" t="inlineStr"/>
+      <c r="R6" s="4" t="inlineStr"/>
+      <c r="S6" s="4" t="inlineStr"/>
       <c r="T6" s="4" t="inlineStr"/>
       <c r="U6" s="4" t="inlineStr"/>
       <c r="V6" s="4" t="inlineStr"/>
@@ -780,28 +724,100 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
-      <c r="G7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H7" s="4" t="inlineStr"/>
       <c r="I7" s="4" t="inlineStr"/>
       <c r="J7" s="4" t="inlineStr"/>
       <c r="K7" s="4" t="inlineStr"/>
-      <c r="L7" s="4" t="inlineStr"/>
-      <c r="M7" s="4" t="inlineStr"/>
-      <c r="N7" s="4" t="inlineStr"/>
-      <c r="O7" s="4" t="inlineStr"/>
-      <c r="P7" s="4" t="inlineStr"/>
-      <c r="Q7" s="4" t="inlineStr"/>
-      <c r="R7" s="4" t="inlineStr"/>
-      <c r="S7" s="4" t="inlineStr"/>
-      <c r="T7" s="4" t="inlineStr"/>
-      <c r="U7" s="4" t="inlineStr"/>
-      <c r="V7" s="4" t="inlineStr"/>
-      <c r="W7" s="4" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
@@ -891,30 +907,18 @@
       <c r="B9" s="4" t="inlineStr"/>
       <c r="C9" s="4" t="inlineStr"/>
       <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr"/>
+      <c r="G9" s="4" t="inlineStr"/>
+      <c r="H9" s="4" t="inlineStr"/>
       <c r="I9" s="4" t="inlineStr"/>
       <c r="J9" s="4" t="inlineStr"/>
       <c r="K9" s="4" t="inlineStr"/>
-      <c r="L9" s="4" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -935,11 +939,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q9" s="4" t="inlineStr"/>
       <c r="R9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -970,7 +970,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X9" s="4" t="inlineStr"/>
+      <c r="X9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -980,11 +984,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr"/>
       <c r="C10" s="4" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="D10" s="4" t="inlineStr"/>
       <c r="E10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1000,27 +1000,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I10" s="4" t="inlineStr"/>
+      <c r="J10" s="4" t="inlineStr"/>
+      <c r="K10" s="4" t="inlineStr"/>
+      <c r="L10" s="4" t="inlineStr"/>
       <c r="M10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1071,8 +1059,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W10" s="4" t="inlineStr"/>
-      <c r="X10" s="4" t="inlineStr"/>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1081,10 +1077,26 @@
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr"/>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="4" t="inlineStr"/>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1095,26 +1107,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I11" s="4" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr"/>
+      <c r="K11" s="4" t="inlineStr"/>
+      <c r="L11" s="4" t="inlineStr"/>
       <c r="M11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1125,7 +1121,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O11" s="4" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1283,28 +1283,44 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr"/>
-      <c r="C16" s="4" t="inlineStr"/>
-      <c r="D16" s="4" t="inlineStr"/>
-      <c r="E16" s="4" t="inlineStr"/>
-      <c r="F16" s="4" t="inlineStr"/>
-      <c r="G16" s="4" t="inlineStr"/>
-      <c r="H16" s="4" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I16" s="4" t="inlineStr"/>
+      <c r="J16" s="4" t="inlineStr"/>
+      <c r="K16" s="4" t="inlineStr"/>
       <c r="L16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1320,7 +1336,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O16" s="4" t="inlineStr"/>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1341,26 +1361,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T16" s="4" t="inlineStr"/>
+      <c r="U16" s="4" t="inlineStr"/>
+      <c r="V16" s="4" t="inlineStr"/>
+      <c r="W16" s="4" t="inlineStr"/>
       <c r="X16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1400,7 +1404,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M17" s="4" t="inlineStr"/>
+      <c r="M17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1411,11 +1419,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P17" s="4" t="inlineStr"/>
       <c r="Q17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1455,9 +1459,21 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr"/>
-      <c r="C18" s="4" t="inlineStr"/>
-      <c r="D18" s="4" t="inlineStr"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1479,9 +1495,21 @@
         </is>
       </c>
       <c r="I18" s="4" t="inlineStr"/>
-      <c r="J18" s="4" t="inlineStr"/>
-      <c r="K18" s="4" t="inlineStr"/>
-      <c r="L18" s="4" t="inlineStr"/>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1492,51 +1520,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O18" s="4" t="inlineStr"/>
+      <c r="P18" s="4" t="inlineStr"/>
+      <c r="Q18" s="4" t="inlineStr"/>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr"/>
+      <c r="T18" s="4" t="inlineStr"/>
+      <c r="U18" s="4" t="inlineStr"/>
+      <c r="V18" s="4" t="inlineStr"/>
+      <c r="W18" s="4" t="inlineStr"/>
       <c r="X18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1548,22 +1540,30 @@
       <c r="B19" s="4" t="inlineStr"/>
       <c r="C19" s="4" t="inlineStr"/>
       <c r="D19" s="4" t="inlineStr"/>
-      <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
-      <c r="G19" s="4" t="inlineStr"/>
-      <c r="H19" s="4" t="inlineStr"/>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I19" s="4" t="inlineStr"/>
       <c r="J19" s="4" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K19" s="4" t="inlineStr"/>
+      <c r="L19" s="4" t="inlineStr"/>
       <c r="M19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1574,7 +1574,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O19" s="4" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1615,11 +1619,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="X19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1704,7 +1704,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S20" s="4" t="inlineStr"/>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T20" s="4" t="inlineStr"/>
       <c r="U20" s="4" t="inlineStr"/>
       <c r="V20" s="4" t="inlineStr"/>
@@ -1738,9 +1742,21 @@
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="4" t="inlineStr"/>
-      <c r="H21" s="4" t="inlineStr"/>
-      <c r="I21" s="4" t="inlineStr"/>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1786,26 +1802,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S21" s="4" t="inlineStr"/>
+      <c r="T21" s="4" t="inlineStr"/>
+      <c r="U21" s="4" t="inlineStr"/>
+      <c r="V21" s="4" t="inlineStr"/>
       <c r="W21" s="4" t="inlineStr"/>
       <c r="X21" s="4" t="inlineStr"/>
     </row>
@@ -1898,34 +1898,50 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr"/>
-      <c r="C25" s="4" t="inlineStr"/>
-      <c r="D25" s="4" t="inlineStr"/>
-      <c r="E25" s="4" t="inlineStr"/>
-      <c r="F25" s="4" t="inlineStr"/>
-      <c r="G25" s="4" t="inlineStr"/>
-      <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M25" s="4" t="inlineStr"/>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr"/>
+      <c r="J25" s="4" t="inlineStr"/>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1956,26 +1972,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T25" s="4" t="inlineStr"/>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr"/>
+      <c r="W25" s="4" t="inlineStr"/>
       <c r="X25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1991,21 +1991,77 @@
       <c r="F26" s="4" t="inlineStr"/>
       <c r="G26" s="4" t="inlineStr"/>
       <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="4" t="inlineStr"/>
-      <c r="J26" s="4" t="inlineStr"/>
-      <c r="K26" s="4" t="inlineStr"/>
-      <c r="L26" s="4" t="inlineStr"/>
-      <c r="M26" s="4" t="inlineStr"/>
-      <c r="N26" s="4" t="inlineStr"/>
-      <c r="O26" s="4" t="inlineStr"/>
-      <c r="P26" s="4" t="inlineStr"/>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q26" s="4" t="inlineStr"/>
-      <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="4" t="inlineStr"/>
-      <c r="T26" s="4" t="inlineStr"/>
-      <c r="U26" s="4" t="inlineStr"/>
-      <c r="V26" s="4" t="inlineStr"/>
-      <c r="W26" s="4" t="inlineStr"/>
+      <c r="R26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2014,100 +2070,28 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B27" s="4" t="inlineStr"/>
+      <c r="C27" s="4" t="inlineStr"/>
+      <c r="D27" s="4" t="inlineStr"/>
+      <c r="E27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr"/>
+      <c r="G27" s="4" t="inlineStr"/>
       <c r="H27" s="4" t="inlineStr"/>
       <c r="I27" s="4" t="inlineStr"/>
       <c r="J27" s="4" t="inlineStr"/>
       <c r="K27" s="4" t="inlineStr"/>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L27" s="4" t="inlineStr"/>
+      <c r="M27" s="4" t="inlineStr"/>
+      <c r="N27" s="4" t="inlineStr"/>
+      <c r="O27" s="4" t="inlineStr"/>
+      <c r="P27" s="4" t="inlineStr"/>
+      <c r="Q27" s="4" t="inlineStr"/>
+      <c r="R27" s="4" t="inlineStr"/>
+      <c r="S27" s="4" t="inlineStr"/>
+      <c r="T27" s="4" t="inlineStr"/>
+      <c r="U27" s="4" t="inlineStr"/>
+      <c r="V27" s="4" t="inlineStr"/>
+      <c r="W27" s="4" t="inlineStr"/>
       <c r="X27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2116,36 +2100,12 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B28" s="4" t="inlineStr"/>
+      <c r="C28" s="4" t="inlineStr"/>
+      <c r="D28" s="4" t="inlineStr"/>
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr"/>
       <c r="H28" s="4" t="inlineStr"/>
       <c r="I28" s="5" t="inlineStr">
         <is>
@@ -2167,25 +2127,57 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M28" s="4" t="inlineStr"/>
       <c r="N28" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O28" s="4" t="inlineStr"/>
-      <c r="P28" s="4" t="inlineStr"/>
-      <c r="Q28" s="4" t="inlineStr"/>
-      <c r="R28" s="4" t="inlineStr"/>
-      <c r="S28" s="4" t="inlineStr"/>
-      <c r="T28" s="4" t="inlineStr"/>
-      <c r="U28" s="4" t="inlineStr"/>
-      <c r="V28" s="4" t="inlineStr"/>
-      <c r="W28" s="4" t="inlineStr"/>
+      <c r="O28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
@@ -2290,7 +2282,11 @@
       </c>
       <c r="B30" s="4" t="inlineStr"/>
       <c r="C30" s="4" t="inlineStr"/>
-      <c r="D30" s="4" t="inlineStr"/>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2306,15 +2302,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I30" s="4" t="inlineStr"/>
-      <c r="J30" s="4" t="inlineStr"/>
-      <c r="K30" s="4" t="inlineStr"/>
-      <c r="L30" s="4" t="inlineStr"/>
+      <c r="H30" s="4" t="inlineStr"/>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2365,16 +2373,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="W30" s="4" t="inlineStr"/>
+      <c r="X30" s="4" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2383,40 +2383,28 @@
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr"/>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C31" s="4" t="inlineStr"/>
+      <c r="D31" s="4" t="inlineStr"/>
+      <c r="E31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="inlineStr"/>
+      <c r="G31" s="4" t="inlineStr"/>
+      <c r="H31" s="4" t="inlineStr"/>
       <c r="I31" s="4" t="inlineStr"/>
-      <c r="J31" s="4" t="inlineStr"/>
-      <c r="K31" s="4" t="inlineStr"/>
-      <c r="L31" s="4" t="inlineStr"/>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2427,11 +2415,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O31" s="4" t="inlineStr"/>
       <c r="P31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2447,10 +2431,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S31" s="4" t="inlineStr"/>
-      <c r="T31" s="4" t="inlineStr"/>
-      <c r="U31" s="4" t="inlineStr"/>
-      <c r="V31" s="4" t="inlineStr"/>
+      <c r="S31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="W31" s="4" t="inlineStr"/>
       <c r="X31" s="4" t="inlineStr"/>
     </row>
@@ -2555,29 +2555,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -2598,29 +2598,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2641,17 +2629,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2705,29 +2705,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -2748,29 +2748,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2791,17 +2791,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2810,10 +2810,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2865,29 +2865,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11">
@@ -2913,12 +2913,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2961,19 +2961,19 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -2994,29 +2994,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -3052,11 +3052,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -3090,19 +3090,19 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -3123,29 +3123,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -3166,17 +3166,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
@@ -3197,29 +3209,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3240,26 +3240,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
         <v>0.5</v>
@@ -3326,29 +3326,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -3369,29 +3369,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
